--- a/data/trans_camb/P54_A_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_1_R-Urba-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>49,53</t>
+          <t>49,17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>53,85</t>
+          <t>53,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>49,82</t>
+          <t>49,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>53,83</t>
+          <t>53,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>49,72</t>
+          <t>49,3</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>53,88</t>
+          <t>53,87</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>44,37; 54,33</t>
+          <t>44,51; 54,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>48,84; 58,69</t>
+          <t>49,03; 58,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,5; 54,0</t>
+          <t>44,86; 53,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,8; 58,1</t>
+          <t>50,38; 57,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,1; 52,95</t>
+          <t>46,06; 52,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>50,83; 57,19</t>
+          <t>50,85; 57,19</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>120,76%</t>
+          <t>119,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>131,28%</t>
+          <t>130,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>116,69%</t>
+          <t>115,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>126,1%</t>
+          <t>126,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>118,78%</t>
+          <t>117,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>128,74%</t>
+          <t>128,71%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>98,1; 146,15</t>
+          <t>100,02; 147,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>108,71; 159,31</t>
+          <t>109,26; 157,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>97,81; 137,6</t>
+          <t>97,85; 137,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>107,28; 151,22</t>
+          <t>109,74; 149,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>103,65; 134,97</t>
+          <t>103,4; 135,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>113,24; 146,49</t>
+          <t>113,97; 147,08</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>53,08</t>
+          <t>53,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>54,68</t>
+          <t>54,57</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>56,51</t>
+          <t>56,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>58,39</t>
+          <t>58,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>54,84</t>
+          <t>54,69</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>56,55</t>
+          <t>56,59</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>46,11; 59,0</t>
+          <t>46,8; 59,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,36; 60,13</t>
+          <t>48,32; 59,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,42; 61,19</t>
+          <t>50,82; 60,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>52,96; 63,23</t>
+          <t>53,76; 63,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50,43; 58,69</t>
+          <t>50,44; 58,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,52; 59,99</t>
+          <t>52,58; 59,97</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>147,61%</t>
+          <t>147,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>152,05%</t>
+          <t>151,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>151,75%</t>
+          <t>150,63%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>156,8%</t>
+          <t>157,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>149,9%</t>
+          <t>149,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>154,58%</t>
+          <t>154,66%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>116,6; 183,59</t>
+          <t>117,85; 184,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>120,5; 186,93</t>
+          <t>121,99; 188,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>123,99; 183,6</t>
+          <t>123,3; 182,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>128,94; 190,79</t>
+          <t>129,18; 190,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>127,66; 173,33</t>
+          <t>128,12; 172,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>132,91; 178,73</t>
+          <t>133,89; 178,1</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>58,76</t>
+          <t>57,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>63,2</t>
+          <t>63,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>57,46</t>
+          <t>57,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>58,09</t>
+          <t>57,97</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>58,11</t>
+          <t>57,23</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>60,7</t>
+          <t>60,55</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>41,95; 68,79</t>
+          <t>38,91; 67,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>52,69; 72,04</t>
+          <t>53,58; 71,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,49; 66,75</t>
+          <t>48,21; 66,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>49,46; 66,53</t>
+          <t>50,15; 66,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>48,63; 65,32</t>
+          <t>45,9; 64,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,36; 66,9</t>
+          <t>53,53; 66,74</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>181,07%</t>
+          <t>176,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>194,76%</t>
+          <t>194,18%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>154,37%</t>
+          <t>153,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>156,05%</t>
+          <t>155,71%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>167,06%</t>
+          <t>164,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>174,5%</t>
+          <t>174,04%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>111,03; 281,28</t>
+          <t>103,23; 272,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>127,61; 302,09</t>
+          <t>130,03; 288,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>105,41; 222,62</t>
+          <t>111,86; 233,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>109,64; 225,25</t>
+          <t>112,01; 223,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>122,21; 224,14</t>
+          <t>116,53; 213,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>130,81; 231,41</t>
+          <t>132,05; 231,38</t>
         </is>
       </c>
     </row>
@@ -1069,27 +1069,27 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>52,04</t>
+          <t>51,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>55,27</t>
+          <t>55,14</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>53,3</t>
+          <t>52,87</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>56,11</t>
+          <t>56,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>52,71</t>
+          <t>52,35</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>48,08; 55,47</t>
+          <t>47,33; 55,33</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>51,96; 58,82</t>
+          <t>51,76; 58,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>50,19; 56,23</t>
+          <t>49,87; 55,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>53,15; 58,92</t>
+          <t>53,69; 59,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>50,39; 55,16</t>
+          <t>49,64; 54,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>53,45; 57,9</t>
+          <t>53,39; 57,82</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>136,96%</t>
+          <t>136,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>145,47%</t>
+          <t>145,1%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>133,44%</t>
+          <t>132,36%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>140,49%</t>
+          <t>140,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>135,33%</t>
+          <t>134,38%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>143,08%</t>
+          <t>143,05%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>119,63; 156,84</t>
+          <t>117,63; 158,21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>128,26; 168,13</t>
+          <t>127,84; 166,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>119,18; 150,33</t>
+          <t>116,3; 148,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>125,23; 158,41</t>
+          <t>126,9; 157,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>122,98; 147,47</t>
+          <t>121,35; 147,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>130,64; 155,51</t>
+          <t>130,14; 156,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P54_A_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P54_A_1_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>49,17</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>53,7</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>49,35</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>53,95</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>49,3</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>53,87</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>49.49916762346614</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>53.73772732213389</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>49.834504693135</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>53.80195967904071</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>49.70814632876113</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>53.81236172242918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>44,51; 54,35</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>49,03; 58,24</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>44,86; 53,64</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>50,38; 57,95</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>46,06; 52,82</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>50,85; 57,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>44.88301900038945</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>49.0124761187704</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>45.29165087953662</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>50.02792955762423</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>46.65510312736853</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>50.76149778613491</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>119,88%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>130,91%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>115,59%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>126,37%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>117,79%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>128,71%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>54.67597786616554</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>58.248749538761</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>53.93550369003717</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>57.79265376571202</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>53.25717995861427</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>57.10118088453352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>100,02; 147,64</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>109,26; 157,51</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>97,85; 137,51</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>109,74; 149,46</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>103,4; 135,83</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>113,97; 147,08</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>1.206740261647209</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>1.31007211317824</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>1.167348879164259</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1.260284570197016</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>1.18766513576156</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.285726196024736</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>53,2</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>54,57</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>56,1</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>58,57</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>54,69</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>56,59</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>1.00367231345584</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>1.086148365165073</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.9883175208377476</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>1.087339911980172</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>1.046294274299917</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>1.1364026597553</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>46,8; 59,1</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>48,32; 59,66</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>50,82; 60,93</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>53,76; 63,35</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>50,44; 58,4</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>52,58; 59,97</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.482404795709506</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1.575547345026952</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.383078429494725</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.492289492976987</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.368244137793308</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.469383797759221</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>147,91%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>151,73%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>150,63%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>157,27%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>149,48%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>154,66%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>53.48629159409074</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>54.59833328348608</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>56.4912952873412</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>58.65252553737656</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>55.02338808351011</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>56.63671059287874</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>117,85; 184,32</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>121,99; 188,27</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>123,3; 182,2</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>129,18; 190,72</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>128,12; 172,38</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>133,89; 178,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>47.22642722099376</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>48.30271270171085</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>51.19229929330893</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>53.80513773457631</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>50.99384538393769</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>52.57877173384895</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>57,32</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>63,03</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>57,17</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>57,97</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>57,23</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>60,55</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>59.3498092754803</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>59.78439447540882</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>61.31033468103214</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>63.38048103642569</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>58.86958593708633</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>59.9768624268905</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>38,91; 67,97</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>53,58; 71,44</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>48,21; 66,24</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>50,15; 66,73</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>45,9; 64,19</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>53,53; 66,74</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>1.487096232198473</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>1.518014677973281</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>1.516751065550192</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1.574778559307712</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>1.503941369767907</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.54803793577607</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>176,59%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>194,18%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>153,57%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>155,71%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>164,47%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>174,04%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>1.186072444736634</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>1.21474724401031</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>1.240375754814246</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>1.294603452489341</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>1.298900385595084</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>1.33906759098941</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>103,23; 272,27</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>130,03; 288,34</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>111,86; 233,29</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>112,01; 223,55</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>116,53; 213,84</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>132,05; 231,38</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>1.845858704108633</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1.8807064358435</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.847629597274566</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.907693633767054</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.72929179308276</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.780733186960519</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,153 +928,317 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>51,74</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>55,14</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>52,87</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>56,22</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>52,35</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>55,73</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>59.05365040203993</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>63.08333979408761</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>57.34832089656425</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>57.9234239280513</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>58.20938885294991</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>60.55897893065733</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>47,33; 55,33</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>51,76; 58,53</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>49,87; 55,94</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>53,69; 59,01</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>49,64; 54,77</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>53,39; 57,82</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>40.42133221652296</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>53.63303280290918</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>48.28776030191061</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>49.74933751233254</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>49.33062835574265</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>53.56925481675187</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>136,15%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>145,1%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>132,36%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>140,77%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>134,38%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>143,05%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>69.0297584328018</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>71.58767502959454</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>66.51688367319962</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>66.50696332144371</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>64.62260954402237</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>66.77927887232003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>117,63; 158,21</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>127,84; 166,35</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>116,3; 148,43</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>126,9; 157,42</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>121,35; 147,07</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>130,14; 156,16</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>1.819260616349948</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>1.943402903188532</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>1.540478639640531</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>1.555926937371797</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>1.67303542530897</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>1.740566583296033</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>1.081236572255237</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>1.300934943762343</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>1.120549474601599</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>1.116283947756902</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>1.242474813795147</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>1.321312920881369</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>2.80497818103064</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>2.912470977999128</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>2.335174816701587</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>2.228516457777419</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>2.164939528909505</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>2.316728634251767</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>52.21911847507676</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>55.1715689767172</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>53.28295532302995</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>56.17514901935595</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>52.79470647992541</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>55.71731628219428</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>48.12545395776245</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>51.8301869672843</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>50.02412972112035</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>53.635583134785</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>49.75527477428954</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>53.37913152336801</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>56.079549441105</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>58.50167441927664</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>56.12432323969985</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>59.01097422346694</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>55.05845431755838</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>57.81292966292533</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>1.374181158865899</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>1.4518768758814</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>1.334069045239927</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>1.406482184858684</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>1.355263998887635</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>1.430288714657523</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>1.198999523197464</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>1.279128889299922</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>1.184112591221743</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>1.267366706559732</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>1.218857337709717</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>1.299347775519248</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>1.604259920487699</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1.663710334769499</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>1.492429720060316</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>1.569884826774961</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>1.479455847282169</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>1.562224279347486</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1221,14 +1246,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
